--- a/dados/DadosCopaDoMundoQatar2022.xlsx
+++ b/dados/DadosCopaDoMundoQatar2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\MINICURSO DATA SCIENCE NA COPA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Debi\Workshop Data Science\Minicurso FLAI - Data Science na Copa\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B1251A-DB48-4798-A108-B5328F2DB5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5066356-D2D1-447F-8FDF-DAAF30B74157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="selecoes" sheetId="3" r:id="rId1"/>
@@ -24,12 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
@@ -833,9 +830,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -899,6 +896,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -920,15 +924,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -949,11 +953,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,19 +1177,19 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="25.85546875" style="11" customWidth="1"/>
@@ -1192,7 +1197,7 @@
     <col min="19" max="16384" width="14.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>36</v>
       </c>
@@ -1233,7 +1238,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>43</v>
       </c>
@@ -1274,7 +1279,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>1464</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I3" s="11">
         <v>0</v>
@@ -1315,7 +1320,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>8</v>
       </c>
@@ -1337,7 +1342,7 @@
       <c r="G4" s="11">
         <v>1585</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="13" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="11">
@@ -1356,7 +1361,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>58</v>
       </c>
@@ -1397,7 +1402,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>63</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>69</v>
       </c>
@@ -1479,7 +1484,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>74</v>
       </c>
@@ -1520,7 +1525,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>80</v>
       </c>
@@ -1561,7 +1566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>19</v>
       </c>
@@ -1602,7 +1607,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>90</v>
       </c>
@@ -1643,7 +1648,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>95</v>
       </c>
@@ -1684,7 +1689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>100</v>
       </c>
@@ -1725,7 +1730,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>105</v>
       </c>
@@ -1766,7 +1771,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>111</v>
       </c>
@@ -1807,7 +1812,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>116</v>
       </c>
@@ -1848,7 +1853,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>121</v>
       </c>
@@ -1889,7 +1894,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>126</v>
       </c>
@@ -1930,7 +1935,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>132</v>
       </c>
@@ -1971,7 +1976,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>137</v>
       </c>
@@ -2012,7 +2017,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>16</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>146</v>
       </c>
@@ -2094,7 +2099,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>152</v>
       </c>
@@ -2135,7 +2140,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>157</v>
       </c>
@@ -2176,7 +2181,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>162</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>167</v>
       </c>
@@ -2258,7 +2263,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>173</v>
       </c>
@@ -2299,7 +2304,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>178</v>
       </c>
@@ -2340,7 +2345,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>183</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
@@ -2422,7 +2427,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>193</v>
       </c>
@@ -2463,7 +2468,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>198</v>
       </c>
@@ -2504,7 +2509,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>203</v>
       </c>
@@ -2674,7 +2679,7 @@
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>208</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>44886</v>
       </c>
@@ -2714,7 +2719,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>44886</v>
       </c>
@@ -2734,7 +2739,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>44890</v>
       </c>
@@ -2754,7 +2759,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>44890</v>
       </c>
@@ -2774,7 +2779,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>44894</v>
       </c>
@@ -2794,7 +2799,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>44894</v>
       </c>
@@ -2814,7 +2819,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>44886</v>
       </c>
@@ -2834,7 +2839,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>44886</v>
       </c>
@@ -2854,7 +2859,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>44890</v>
       </c>
@@ -2874,7 +2879,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>44890</v>
       </c>
@@ -2894,7 +2899,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>44894</v>
       </c>
@@ -2914,7 +2919,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>44894</v>
       </c>
@@ -2934,7 +2939,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>44887</v>
       </c>
@@ -2954,7 +2959,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>44887</v>
       </c>
@@ -2974,7 +2979,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>44891</v>
       </c>
@@ -2994,7 +2999,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>44891</v>
       </c>
@@ -3014,7 +3019,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>44895</v>
       </c>
@@ -3034,7 +3039,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>44895</v>
       </c>
@@ -3054,7 +3059,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>44887</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>44887</v>
       </c>
@@ -3094,7 +3099,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>44891</v>
       </c>
@@ -3114,7 +3119,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>44891</v>
       </c>
@@ -3134,7 +3139,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>44895</v>
       </c>
@@ -3154,7 +3159,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>44895</v>
       </c>
@@ -3174,7 +3179,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>44888</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>44888</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>44892</v>
       </c>
@@ -3234,7 +3239,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>44892</v>
       </c>
@@ -3254,7 +3259,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>44896</v>
       </c>
@@ -3274,7 +3279,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>44896</v>
       </c>
@@ -3294,7 +3299,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>44888</v>
       </c>
@@ -3314,7 +3319,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>44888</v>
       </c>
@@ -3334,7 +3339,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>44892</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>44892</v>
       </c>
@@ -3374,7 +3379,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>44896</v>
       </c>
@@ -3394,7 +3399,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>44896</v>
       </c>
